--- a/public/data/construction-projects.xlsx
+++ b/public/data/construction-projects.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Documents\GitHub\amoud\public\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Documents\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>id</t>
   </si>
@@ -36,28 +36,16 @@
     <t>images</t>
   </si>
   <si>
-    <t>پروژه مسکونی همت</t>
-  </si>
-  <si>
-    <t>پروژه اداری ونک</t>
-  </si>
-  <si>
-    <t>ساختمان ۱۰ طبقه مسکونی در شمال تهران</t>
-  </si>
-  <si>
-    <t>ساختمان اداری ۱۵ طبقه در میدان ونک</t>
-  </si>
-  <si>
-    <t>این پروژه شامل ۱۰ طبقه مسکونی، پارکینگ، لابی و امکانات رفاهی کامل است...</t>
-  </si>
-  <si>
-    <t>دارای دفاتر اداری مدرن، سالن کنفرانس و پارکینگ طبقاتی.</t>
-  </si>
-  <si>
     <t>/projects/tehran1.jpg, /projects/tehran2.jpg, /projects/tehran3.jpg</t>
   </si>
   <si>
-    <t>/projects/vanak1.jpg, /projects/vanak2.jpg</t>
+    <t>پروژه مسکونی سرو</t>
+  </si>
+  <si>
+    <t>ساختمان 4 طبقه مسکونی در غرب تهران</t>
+  </si>
+  <si>
+    <t xml:space="preserve">پروژه ساختمانی سرو واقع در شهرک سروآزاد متشکل 3 واحد مسکونی با متراژ 165 مترمربع </t>
   </si>
 </sst>
 </file>
@@ -434,7 +422,7 @@
   <dimension ref="A1:E61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,68 +457,44 @@
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="3" t="s">
-        <v>12</v>
-      </c>
+      <c r="B5" s="3"/>
+      <c r="C5" s="3"/>
+      <c r="D5" s="3"/>
+      <c r="E5" s="3"/>
     </row>
     <row r="6" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="3"/>

--- a/public/data/construction-projects.xlsx
+++ b/public/data/construction-projects.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Documents\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mohammad\Documents\GitHub\amoud\public\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4545"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -421,8 +421,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,27 +470,21 @@
       </c>
     </row>
     <row r="3" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
-        <v>2</v>
-      </c>
+      <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
-        <v>3</v>
-      </c>
+      <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
-        <v>4</v>
-      </c>
+      <c r="A5" s="3"/>
       <c r="B5" s="3"/>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
